--- a/biology/Zoologie/Buse_à_épaulettes/Buse_à_épaulettes.xlsx
+++ b/biology/Zoologie/Buse_à_épaulettes/Buse_à_épaulettes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Buse_%C3%A0_%C3%A9paulettes</t>
+          <t>Buse_à_épaulettes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buteo lineatus
 La Buse à épaulettes (Buteo lineatus) est une espèce de rapaces diurnes de la famille des Accipitridae.
@@ -488,7 +500,7 @@
 Elle se nourrit de petits mammifères, de reptiles, d'amphibiens, de petits oiseaux ou de grands insectes.
 Les mâles et les femelles ont un plumage identique mais le mâle est plus petit que la femelle. Leur poids est compris entre 500 et 700 grammes et leur taille entre 43 et 61 centimètres. Elle peut vivre jusqu'à l'âge de 20 ans.
 C'est un oiseau solitaire et territorial, le mâle ayant un plus grand territoire que la femelle. 
-Pour chasser, elle utilise la vue et l'ouïe, sa technique consistant à s'abattre sur sa proie depuis les airs[1]. 
+Pour chasser, elle utilise la vue et l'ouïe, sa technique consistant à s'abattre sur sa proie depuis les airs. 
 </t>
         </is>
       </c>
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Buse_%C3%A0_%C3%A9paulettes</t>
+          <t>Buse_à_épaulettes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Répartition et sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des cinq sous-espèces suivantes :
 B. l. lineatus (Gmelin, JF, 1788)	: est de l'Amérique du Nord ;
